--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/1.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/1.xlsx
@@ -479,13 +479,13 @@
         <v>-15.85366404146105</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.779805737923327</v>
+        <v>-8.712812424282214</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.916548833284725</v>
+        <v>-2.939407994046379</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.332602399696854</v>
+        <v>-5.338389197552896</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.74895465640505</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.042803917407921</v>
+        <v>-8.969932159790874</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.97393239664001</v>
+        <v>-3.006506046110225</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.252870275390742</v>
+        <v>-5.257923904287648</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.59058453298722</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.867344058076986</v>
+        <v>-9.792992870238825</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.847774966457138</v>
+        <v>-2.883268199461057</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.118713448171575</v>
+        <v>-5.124199123062258</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.36746276275407</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.64180614037645</v>
+        <v>-10.57193252011016</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.777233638745918</v>
+        <v>-2.803365875218003</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.342002673137213</v>
+        <v>-5.351429131183256</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-15.0701637895167</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.42911177176365</v>
+        <v>-11.35495696846811</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.626069910135349</v>
+        <v>-2.650107378152758</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.893198531722843</v>
+        <v>-4.901878728506907</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.70687161301906</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.11027810401297</v>
+        <v>-12.03447367055938</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.611733838523659</v>
+        <v>-2.632328030893694</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.004168890609313</v>
+        <v>-5.018609700643737</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.2955719364273</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.62595772834288</v>
+        <v>-12.54655291160781</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.487919930549455</v>
+        <v>-2.507702400143303</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.561452670016346</v>
+        <v>-4.580331770714115</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.86358306083793</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.5833323736441</v>
+        <v>-13.50574738700403</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.225838212263783</v>
+        <v>-2.250216080155077</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.469662534793005</v>
+        <v>-4.494721202432069</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.44533647847811</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.33760612496162</v>
+        <v>-14.25940580008799</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.201512713583856</v>
+        <v>-2.21899093787756</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.058930810042375</v>
+        <v>-4.091596105632481</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.07810942457358</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.01391521285666</v>
+        <v>-14.93945928659577</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.036837728440625</v>
+        <v>-2.055245506236092</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.851404717698175</v>
+        <v>-3.881517014234145</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.79571409876089</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.65690439001951</v>
+        <v>-15.58514547814401</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.048673170209546</v>
+        <v>-2.06289141109566</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.346473874001326</v>
+        <v>-3.375591155521324</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.61747468653651</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.61472417361735</v>
+        <v>-16.54181313909178</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.863299254273546</v>
+        <v>-1.881693939766171</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.702568235639554</v>
+        <v>-2.73371482410002</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.55356951387015</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.24138724913657</v>
+        <v>-17.17754918048031</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.610316686462873</v>
+        <v>-1.62826623365888</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.320993069317448</v>
+        <v>-2.355360364276978</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.58791871151558</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.1383016399147</v>
+        <v>-18.07490870955506</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.460606203467736</v>
+        <v>-1.47156446094626</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.754214186996285</v>
+        <v>-1.780228592742794</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.68049541091326</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.03131452444599</v>
+        <v>-18.97143033124793</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.303996076875009</v>
+        <v>-1.314653211388173</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.347344691583964</v>
+        <v>-1.387511876702379</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.7768360974718</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.82146118554984</v>
+        <v>-19.7571256093856</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.066881380108508</v>
+        <v>-1.073545362254946</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8297012218277982</v>
+        <v>-0.8728927289026525</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.82199045521832</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.7779062773493</v>
+        <v>-20.72100712919915</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9787439973780078</v>
+        <v>-0.9792284125831516</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.462606142448641</v>
+        <v>-0.5018175894596105</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.77230434384864</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.61288098338322</v>
+        <v>-21.5538870667784</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8243464699655323</v>
+        <v>-0.8216363632772949</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.09168811063969974</v>
+        <v>-0.1374326167686906</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.60136232876756</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.25158897751682</v>
+        <v>-22.19294855308873</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5714948251832767</v>
+        <v>-0.5699368411451112</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2923876855251762</v>
+        <v>0.2506101471572283</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.30934012026089</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.87908996041791</v>
+        <v>-22.82367024248889</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2705813366690447</v>
+        <v>-0.2690626295394045</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6277601151188311</v>
+        <v>0.5810598708823943</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.91245340644036</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.51711715480375</v>
+        <v>-23.45818869971314</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.03444856261567337</v>
+        <v>-0.02397472034229251</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6240026242032558</v>
+        <v>0.5734663352341932</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.44117856620565</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.00543386619445</v>
+        <v>-23.95371926996963</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06795943021230794</v>
+        <v>0.08194200964727139</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8953275082951868</v>
+        <v>0.8392662675269158</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.93397896916018</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.37015923875925</v>
+        <v>-24.31751508903267</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04555850005011464</v>
+        <v>0.0542256045313373</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8329819621628873</v>
+        <v>0.7779419210162709</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.43011840180916</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.65551907149752</v>
+        <v>-24.60393539830111</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3289675796649588</v>
+        <v>0.3384856838308937</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8057892491606222</v>
+        <v>0.7558944830308042</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.961671371160834</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.66626785213057</v>
+        <v>-24.61666111666327</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3435393127278</v>
+        <v>0.349129726041217</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6680451309628223</v>
+        <v>0.6125075823082203</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.551347777012499</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.60114673779583</v>
+        <v>-24.55699949261353</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1571049202616207</v>
+        <v>0.166937239695757</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6348823278647302</v>
+        <v>0.5809551324596605</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.212911426827429</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.71464391113075</v>
+        <v>-24.67341624948216</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2929637468502121</v>
+        <v>0.2989992984602479</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3340473931675486</v>
+        <v>0.2791251827465077</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.947687404553928</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.74241268545805</v>
+        <v>-24.70083153163273</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2711519703158965</v>
+        <v>0.2715185547954648</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2168058212198916</v>
+        <v>0.1644366098529873</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.74793654991729</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.54093523702673</v>
+        <v>-24.49879111417921</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1186790114211547</v>
+        <v>0.1229340098447157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02186143190659046</v>
+        <v>-0.03358447062811944</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.599930886016338</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.06306618330373</v>
+        <v>-24.02008415307434</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1246229169112984</v>
+        <v>0.1273068389938522</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.4700949396741083</v>
+        <v>-0.517711645109466</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.488126088607965</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.11677080956049</v>
+        <v>-24.07546459409484</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1741903754700733</v>
+        <v>0.177070682095253</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.5803844988128087</v>
+        <v>-0.6225155293574832</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.396294463150625</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.71900046462317</v>
+        <v>-23.67336069691691</v>
       </c>
       <c r="F33" t="n">
-        <v>0.104277478295256</v>
+        <v>0.1061234929959394</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.072812193295809</v>
+        <v>-1.108750564596348</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.31290342865351</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.1497733216706</v>
+        <v>-23.11009055175733</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.03774782293178833</v>
+        <v>-0.04197663674966585</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.154652178359439</v>
+        <v>-1.190944041836704</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.227555927825316</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.7874962097372</v>
+        <v>-22.75515822171814</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2363187801322476</v>
+        <v>-0.2393561943915281</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.198825608147423</v>
+        <v>-1.227406105250911</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.132905223736275</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.07137342890046</v>
+        <v>-22.04174554756964</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3547648439413433</v>
+        <v>-0.3564275664022425</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.408930884151443</v>
+        <v>-1.444384840246837</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.02561476444726</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.27490318552406</v>
+        <v>-21.2395539678514</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2904685446856266</v>
+        <v>-0.2928120668942956</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.525727317802481</v>
+        <v>-1.563825919071904</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.905711090346967</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.90371021535544</v>
+        <v>-20.86981424329822</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.367542931514868</v>
+        <v>-0.3648459171294724</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.780097669714377</v>
+        <v>-1.820369593255526</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.775564079061616</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.24782511989349</v>
+        <v>-20.2155395010858</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2054994992428245</v>
+        <v>-0.2024228080750188</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.937296949934982</v>
+        <v>-1.9762727354948</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.636857237989308</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.92030807200487</v>
+        <v>-19.89640152701588</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4790762594235324</v>
+        <v>-0.4797439668684604</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.157300006887347</v>
+        <v>-2.197310084371662</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.494083491801354</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.40121135663328</v>
+        <v>-19.37477799719583</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.1938080728051631</v>
+        <v>-0.1946590724898753</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.004421186604511</v>
+        <v>-2.037217405223035</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.348794664404563</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.80997605260377</v>
+        <v>-18.78830829140071</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04206285519137378</v>
+        <v>0.04591199222684124</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.016649397458683</v>
+        <v>-2.034690590774582</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.202515429501364</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.91638710674744</v>
+        <v>-17.88982282428158</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05368882011482653</v>
+        <v>0.04913269872590585</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.905535023240954</v>
+        <v>-1.916506373022321</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.05620506100765</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.57128709614238</v>
+        <v>-17.54988118099616</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0819551019501131</v>
+        <v>0.08078988699719948</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.099432028326917</v>
+        <v>-2.108884670978644</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.91009950206567</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.03130815773823</v>
+        <v>-17.01452382549514</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05046811361576192</v>
+        <v>0.04842571437245265</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.154995761587203</v>
+        <v>-2.159591159884649</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.763536088233835</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.62762009191645</v>
+        <v>-16.62213441702577</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09004614510629982</v>
+        <v>0.08267517860640804</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.097415813689292</v>
+        <v>-2.105951995142097</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.615776652135264</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.99930738623917</v>
+        <v>-15.98933105147378</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1028242326798245</v>
+        <v>0.09287408252011264</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.405307499618164</v>
+        <v>-2.404247023087984</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.470261981915307</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.3428200448465</v>
+        <v>-15.33598586276312</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09288717482295437</v>
+        <v>0.08047567172899805</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.334569787364318</v>
+        <v>-2.334700710392735</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.330731681287644</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.79870393874437</v>
+        <v>-14.79327063306505</v>
       </c>
       <c r="F49" t="n">
-        <v>0.223430526457805</v>
+        <v>0.2151038218504672</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.543248002358589</v>
+        <v>-2.538613327152619</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.204034323127438</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.12908501760145</v>
+        <v>-14.12519660365746</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3736516092637699</v>
+        <v>0.3693573339316837</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.493523436165714</v>
+        <v>-2.47248410549906</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.100056125705125</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.34485607738206</v>
+        <v>-13.34751381485893</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3581241380934828</v>
+        <v>0.3525599093857492</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.561721241668265</v>
+        <v>-2.540956849361288</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.028202777176999</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.73559267233949</v>
+        <v>-12.74427286912356</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4456854594989467</v>
+        <v>0.4424778453027238</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.566670132142437</v>
+        <v>-2.546612724188913</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.994068401104618</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.10760727423326</v>
+        <v>-12.11446764092232</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4989842243676136</v>
+        <v>0.4928963035462109</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.599898396754738</v>
+        <v>-2.573910175613912</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.002427255916902</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.72143670961371</v>
+        <v>-11.7284018147255</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3954372011924021</v>
+        <v>0.3896373110335175</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.69950463677459</v>
+        <v>-2.676174153110634</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.05761648505342</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.26290498718794</v>
+        <v>-11.27345738327837</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1339970057459742</v>
+        <v>0.128943376849068</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.181249012138743</v>
+        <v>-3.14770653225824</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.16081078551477</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.85041889385651</v>
+        <v>-10.85744946048252</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2227497267100352</v>
+        <v>0.2185470974978412</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.255416907737121</v>
+        <v>-3.217318306467698</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.310477608945782</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.0854487311173</v>
+        <v>-10.09507157370597</v>
       </c>
       <c r="F57" t="n">
-        <v>0.183237156733706</v>
+        <v>0.1777907587515479</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.608450853864264</v>
+        <v>-3.564604731647324</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.501838712637457</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.785556442224724</v>
+        <v>-9.793883146832062</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00422609997878544</v>
+        <v>-0.00319723573247324</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.637096812481961</v>
+        <v>-3.604025655503761</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.727997251927534</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.215936530186905</v>
+        <v>-9.233689692840287</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09207545204676736</v>
+        <v>0.08954863759831423</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.917952893042668</v>
+        <v>-3.879618630322094</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.979485475955209</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.88244939220246</v>
+        <v>-8.898422001669365</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.04506642022031321</v>
+        <v>-0.05039498747689572</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.842619782491377</v>
+        <v>-3.807584780086918</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.250823035917474</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.347262236638381</v>
+        <v>-8.368759797904495</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.06877658066667912</v>
+        <v>-0.07231150243394516</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.24556158705118</v>
+        <v>-4.205630063383915</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.537593105414068</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.861563985816027</v>
+        <v>-7.87849233339038</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.022613120846753</v>
+        <v>-0.02405327415934287</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.207842662564167</v>
+        <v>-4.171328229938593</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.835037742862519</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.382228594174753</v>
+        <v>-7.391039713987235</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.04957017239786697</v>
+        <v>-0.05681021586934149</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.207135678210713</v>
+        <v>-4.17259818331424</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.137540605605254</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.053978377326997</v>
+        <v>-7.065866188307284</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.218762002021493</v>
+        <v>-0.2235668771644064</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.434522793965813</v>
+        <v>-4.408534572824986</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.439196978204944</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.666184367155071</v>
+        <v>-6.676291624948884</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.173449541886279</v>
+        <v>-0.178372247754768</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.707772246575477</v>
+        <v>-4.682687394330729</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.734677606542951</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.415466767736016</v>
+        <v>-6.425207441050261</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2802827330747638</v>
+        <v>-0.2881381147797994</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.688356361461197</v>
+        <v>-4.664986600888716</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.018389423938924</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.267170253447786</v>
+        <v>-6.27729060354444</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3423271562417036</v>
+        <v>-0.34814013870343</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.78182231144828</v>
+        <v>-4.761411411318028</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.292596236858078</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.993907708535279</v>
+        <v>-6.003792397180782</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3059567389473886</v>
+        <v>-0.3175696115679996</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.797690182492452</v>
+        <v>-4.777109082425258</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.557652690134599</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.854553237087947</v>
+        <v>-5.864595033367551</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5570278305431694</v>
+        <v>-0.56340378202709</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.878220937271909</v>
+        <v>-4.862431620044787</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.810736634957431</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.646529637235761</v>
+        <v>-5.646804575595437</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5099740941300059</v>
+        <v>-0.5181305988004012</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.722173779701375</v>
+        <v>-4.711084599194433</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.04609233049514</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.527127835319219</v>
+        <v>-5.525281820618536</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.585726158372233</v>
+        <v>-0.5991457687850021</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.689233545751593</v>
+        <v>-4.677908703793499</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.25665650317871</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.533529971408823</v>
+        <v>-5.524090421059939</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.6967096095615448</v>
+        <v>-0.7044471605410049</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.580187755382856</v>
+        <v>-4.577556202511669</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.43605927970511</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.577376093625764</v>
+        <v>-5.560748869016772</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7319148119029462</v>
+        <v>-0.7460152220634851</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.375803815720671</v>
+        <v>-4.37716541521621</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.57959434019659</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.820500157396618</v>
+        <v>-5.804501363324028</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6260242665190657</v>
+        <v>-0.6415386453865112</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.250012970017367</v>
+        <v>-4.254333429955136</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.6857372684899</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.032988232517831</v>
+        <v>-6.013965116488803</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9593935737779367</v>
+        <v>-0.9719621845059937</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.076238834399136</v>
+        <v>-4.076618511181547</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.74930194841463</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.535431538674753</v>
+        <v>-6.524970788704214</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8870455082745584</v>
+        <v>-0.8970480276456371</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.912833802631554</v>
+        <v>-3.91682695499828</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.76521442348764</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.991279339017971</v>
+        <v>-6.97988903554567</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9478199780658508</v>
+        <v>-0.9589484354813179</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.838430245582024</v>
+        <v>-3.840957060030477</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.73143467401168</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.56501023414809</v>
+        <v>-7.548919793955609</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.005596310506388</v>
+        <v>-1.022053335178438</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.461542123677256</v>
+        <v>-3.458871293897544</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.64902195601128</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.98620270886926</v>
+        <v>-7.967886577193685</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9688854933381881</v>
+        <v>-0.9897808086735829</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.260666921176653</v>
+        <v>-3.253583985339279</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.51890146014438</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.461270009784132</v>
+        <v>-8.443831062398953</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.172614817858287</v>
+        <v>-1.186270089722208</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.885009475739007</v>
+        <v>-2.881893507662676</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.34585842151742</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.387524251230568</v>
+        <v>-9.380690069147187</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.093511124088578</v>
+        <v>-1.109457548949801</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.874784387219619</v>
+        <v>-2.867688359079403</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.13838864431017</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19010860003406</v>
+        <v>-10.18807929309359</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.18606061287674</v>
+        <v>-1.201365514898718</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.685181657465742</v>
+        <v>-2.679316305792649</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.906645801057918</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02166621502629</v>
+        <v>-11.02290998379625</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.285391914536916</v>
+        <v>-1.29991127838839</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.323860283639786</v>
+        <v>-2.318570993291728</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.663428118517601</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.22694361463559</v>
+        <v>-12.23105459772789</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.370439513796768</v>
+        <v>-1.385587308184645</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.195162946705619</v>
+        <v>-2.19509748519141</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.421708632799438</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.10080246010944</v>
+        <v>-13.10588227361203</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.460396726622268</v>
+        <v>-1.477979689338706</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.855784272442395</v>
+        <v>-1.853322919508151</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.192149058572424</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.28792083567727</v>
+        <v>-14.30144518451277</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.647420272716325</v>
+        <v>-1.668747634045497</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.608706333213341</v>
+        <v>-1.608797979333233</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.979000299295819</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.37153146497841</v>
+        <v>-15.38949410447726</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.699291976575244</v>
+        <v>-1.721156122320926</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.196338070607495</v>
+        <v>-1.195382332500049</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.788334593475797</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.75381679900785</v>
+        <v>-16.77600825232457</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.695953439350603</v>
+        <v>-1.723499644529595</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.8764145583670768</v>
+        <v>-0.8803422492195946</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.622492748639045</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.42974939347436</v>
+        <v>-18.46326568874918</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.937833734351493</v>
+        <v>-1.964947893536707</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.6722270032475171</v>
+        <v>-0.6715985727111142</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.483062670537818</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.02270297253001</v>
+        <v>-20.06506966452584</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.149785025056196</v>
+        <v>-2.180486475220043</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3679618852058033</v>
+        <v>-0.3706065303798319</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.374019193297352</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.85123944891969</v>
+        <v>-21.89327883334447</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.342831030457447</v>
+        <v>-2.378271894249999</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.5118462934363727</v>
+        <v>-0.5199504288954011</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.302035046304248</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.55225689563094</v>
+        <v>-23.60251824624033</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.434320042715429</v>
+        <v>-2.471999690293916</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.3320889754194738</v>
+        <v>-0.3421045870933943</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.274645155308162</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.62106331377197</v>
+        <v>-25.67078787996485</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.617337344139917</v>
+        <v>-2.654846791781463</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.3326257598359846</v>
+        <v>-0.3458489857061279</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.296746250653257</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.85518623989547</v>
+        <v>-27.91479549473385</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.490944252505894</v>
+        <v>-2.529461807466252</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.4578667288199361</v>
+        <v>-0.4759079221358347</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.374419240814515</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.14451940710254</v>
+        <v>-30.20653764566379</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.982704239543966</v>
+        <v>-3.023905716586879</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.8216363632772949</v>
+        <v>-0.8456214620833371</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.508669330366631</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.32694082930406</v>
+        <v>-32.38692976092485</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.050352168327165</v>
+        <v>-3.090610999565473</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.062809673924731</v>
+        <v>-1.080641390395162</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.691794931533654</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.54954252892685</v>
+        <v>-34.61125964452275</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.416268940450567</v>
+        <v>-3.465142506958731</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.276332040970441</v>
+        <v>-1.306326506780836</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.920231976947587</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.06922167233124</v>
+        <v>-37.13362271000969</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.68692611709757</v>
+        <v>-3.734529730230086</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.687993319222834</v>
+        <v>-1.718262723392905</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.172172453104121</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.60344636419278</v>
+        <v>-39.66915663215541</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.618479557841026</v>
+        <v>-3.657821927880413</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.15664539174526</v>
+        <v>-2.195280777431194</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.439855055739873</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.17357015044634</v>
+        <v>-42.24225237115404</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.794453200336666</v>
+        <v>-3.833245693656701</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.504455509038555</v>
+        <v>-2.545814093715568</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.679913342141164</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.45239019847151</v>
+        <v>-44.51532489823168</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.058682056288382</v>
+        <v>-4.099975179451186</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.087599769911876</v>
+        <v>-3.139117981594068</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.908925681976953</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.79528397660407</v>
+        <v>-46.85402913945489</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.21287010685539</v>
+        <v>-4.256781690586539</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.401985238050244</v>
+        <v>-3.441707284872041</v>
       </c>
     </row>
   </sheetData>
